--- a/app/code/Mlp/Cli/Csv/Auferma/aufermaInterno.xlsx
+++ b/app/code/Mlp/Cli/Csv/Auferma/aufermaInterno.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1777">
   <si>
     <t>Codigo</t>
   </si>
@@ -4998,6 +4998,586 @@
   </si>
   <si>
     <t>Rádio Relógio Despertador. 2 Alarmes, por rádio ou sinal sonoro. Rádio FM/AM. Control automático de frequência (AFC). Alimentação 230V e bateria de segurança. Display cor âmbar. Medidas: 11 x 11 x 11 cm.  Cor: Prata/Titane</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">350032047248</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Maquina Secar Beko DHS 8312 GA0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">47248</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BEKO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">135</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Secador P/Condensação c/Bomba Calor | 16 Programas | LCD Display (grande) | 8 Kg | Controlo Humidade Eletrónico | Classe A+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">350033047644</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Maq.Louça Beko DEN 38530 XAD</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">47644</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">15 Talheres | LCD Display | Aqua intensive | Motor ProSmart Inverter | 8 Programas | AutoDosing | Consumo Água: 9.5 L | Classe A+++</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">350013046841</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Combinado Int. Beko BCHA 275E4 SN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">46841</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">115</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">275 L / 255 L (186/69) Semi No Frost | 3 Gavetas | Classe: A++ | 1770 x 540 x 535 mm (A x L x P)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">350013046899</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Frigorifico Beko RDNT 231I30 WN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">46899</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">130</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 Portas | No Frost | 230 L /201 L (139/62) | Classe A+ | 1450 x 540 x 620 mm (A x L x P) | Branco</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">350013046329</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Combinado Beko RCHA 270K30 WN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">46329</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Semi No Frost | 270 L / 245 L (175/70) | 3 Gavetas | Classe A+ (260 Kwh/ano) | 1705 x 540 x 600 ( A x L x P ) | Branco</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">350013046777</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Congelador Vert.  Beko RFNE 312E43 WN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">46777</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">120</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">No Frost | Branco | 312 L / 282 L | 8 Gavetas | Classe E (EU 2021) - 249 Kwh/ano | 38 dB | 1845 x 595 x 650 mm (A x L x P)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">350013046414</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Frigorifico Beko RSNE 445I31 XBN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">46414</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 Porta No Frost | 445 L / 366 L | Display Digital Interno | Cooler | Inox | Classe A++ | 1850 x 595 x 650 mm (A x L x P) |PVC Inox</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">350004046359</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Congelador Horizontal Beko HSA 47530 N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">46359</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">467 L / 451 L | Classe A+ ( 350 Kwh ) | 40 dB  |  860 x 1552 x 725 mm (A x L x P)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">350033047650</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Maq.Louça Integ. Beko DIN 36421</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">47650</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12 Talheres | 6 Programas | Classe A++AA | Total Integrável</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">350033047651</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Maq.Louça Integ. Beko DIN 36420</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">47651</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12 Talheres | 6 Programas | Led Spot | Classe A++AA | Total Integrável</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">350013046750</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Frigorifico Integ. Beko BSSA 210K3 SN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">46750</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 Porta | 200 L / 184 L (164/20) | Table Top| Classe A+ | 1210 x 540 x 545 mm (A x L x P)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">350013046322</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Frigorifico Beko RDNE 350K30 WN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">46322</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 Portas | No Frost | 350 L / 318 L (245/73) | Classe A+ | No Frost | 1720 x 595 x 650 mm (A x L x P) | Branco</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">350013046402</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Frigorifico Beko RDSA 280K30 SN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">46402</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 Portas | Cíclico | 280 L / 259 L (210/49) | Classe A  | 1598 x 540 x 600 mm (A x L x P) | Silver</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">350032047139</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Maquina Lavar Beko WMP 11744 XWR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">47139</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1400 RPM Variável - 11 Kg - Motor ProSmart Inverter - Óculo Grande XL - LCD Display (grande) - Eletrónica - Classe A+++-10AB</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">350013046413</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Frigorifico Beko TSE 1284 N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">46413</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 Porta | Branco | Cíclico | C/ Congelador | 120 L / 114 L (101/13) | Table Top | Classe A++ | 840 x 545 x 595 mm (A x L x P)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">350013046749</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Frigorifico Beko RDNE 455E31 ZXBN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">46749</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 Portas | No Frost | 455 L / 406 L (313/96) |  Classe A++ | 1850 x 700 x 690 mm (A x L x P) | Look Inox</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">350033047652</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Maq.Louça Beko DFN 26420 WAD</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">47652</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14 Talheres | Display Digital | 6 Programas |Motor ProSmart Inverter | Consumo Água: 10 L | Classe A+++ | Branco</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">350032047249</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Maquina Secar Beko DH 9532 GA0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">47249</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Secador P/Condensação c/Bomba Calor | 16 Programas | Display digital | 9 Kg | Controlo Humidade Eletrónico | Classe A++</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">350032047251</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Maquina Secar Beko DU 7111 GA1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">47251</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Secador P/Condensação | 15 Programas | 7 Kg | Controlo de Humidade Eletrónico | Classe: B</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">350032047257</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Maquina Secar Beko DHS 7413 GA0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">47257</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Secador P/Condensação c/Bomba Calor | 16 Programas | 7 Kg | Classe A-30</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">350032047254</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Maquina Secar Beko DHS 8412 GA0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">47254</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">350032047255</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Maquina Secar Beko DS 8512 CX</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">47255</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Secador P/Condensação c/Bomba Calor | 16 Programas | LCD Display (grande) | 8 Kg | Controlo Humidade Eletrónico | Classe A+++</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">350028048575</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Placa Encast. Beko HII 64200 FMT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">48575</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Placa 60 cm Indução com 2 Zonas Flexíveis + 2 Indução Normal | Slider Control | Timer</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">350028048576</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Placa Encast. Beko HII 64401 MT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">48576</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Placa 60 cm | 4 Indução Magnética | Touch Control | Timer</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">350076048139</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exaustor Telescópico Beko HNT 61110 X</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">48139</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Telescópico 60 cm | Inox | 280 m3/h | 1 Motor</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">350032047138</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Maquina Lavar Beko WMY 81283 LMB4R</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">47138</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1200 RPM Variável - 8 Kg - Óculo Grande XL - Electrónica - Volumax - Display Digital - Classe A+++, C (EU 2021) - Home Wiz</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">350013046441</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Combinado Beko RCNA 366K34 WN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">46441</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">No Frost | 366 L / 324 L (215/109) | 3 gavetas | Classe A+ | 1853 x 595 x 665 mm ( A x L x P ) | Branco</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">350013046442</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Combinado Beko RCNA 366K34 XBN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">46442</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">No Frost | 366 L / 324 L (215/109) | 3 gavetas | Classe A+ | 1853 x 595 x 665 mm ( A x L x P ) | Look Inox</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -5354,11 +5934,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L480"/>
+  <dimension ref="A1:L508"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="I469" sqref="I469"/>
@@ -6007,7 +6587,7 @@
         <v>64</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:12" customHeight="1" ht="12.8">
@@ -6159,7 +6739,7 @@
         <v>64</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:12" customHeight="1" ht="12.8">
@@ -6197,7 +6777,7 @@
         <v>64</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:12" customHeight="1" ht="12.8">
@@ -6537,7 +7117,7 @@
         <v>49</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:12" customHeight="1" ht="12.8">
@@ -7963,7 +8543,7 @@
         <v>236</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:12" customHeight="1" ht="12.8">
@@ -8419,7 +8999,7 @@
         <v>34</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:12" customHeight="1" ht="12.8">
@@ -8609,7 +9189,7 @@
         <v>34</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:12" customHeight="1" ht="12.8">
@@ -8837,7 +9417,7 @@
         <v>34</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" spans="1:12" customHeight="1" ht="12.8">
@@ -9027,7 +9607,7 @@
         <v>34</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" spans="1:12" customHeight="1" ht="12.8">
@@ -9179,7 +9759,7 @@
         <v>34</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" spans="1:12" customHeight="1" ht="12.8">
@@ -9521,7 +10101,7 @@
         <v>376</v>
       </c>
       <c r="L110" s="2" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="111" spans="1:12" customHeight="1" ht="12.8">
@@ -9787,7 +10367,7 @@
         <v>416</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118" spans="1:12" customHeight="1" ht="12.8">
@@ -9825,7 +10405,7 @@
         <v>416</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119" spans="1:12" customHeight="1" ht="12.8">
@@ -10015,7 +10595,7 @@
         <v>416</v>
       </c>
       <c r="L123" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="124" spans="1:12" customHeight="1" ht="12.8">
@@ -10167,7 +10747,7 @@
         <v>416</v>
       </c>
       <c r="L127" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="128" spans="1:12" customHeight="1" ht="12.8">
@@ -10243,7 +10823,7 @@
         <v>416</v>
       </c>
       <c r="L129" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130" spans="1:12" customHeight="1" ht="12.8">
@@ -10433,7 +11013,7 @@
         <v>403</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="135" spans="1:12" customHeight="1" ht="12.8">
@@ -10623,7 +11203,7 @@
         <v>488</v>
       </c>
       <c r="L139" s="2" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="140" spans="1:12" customHeight="1" ht="12.8">
@@ -10699,7 +11279,7 @@
         <v>488</v>
       </c>
       <c r="L141" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="142" spans="1:12" customHeight="1" ht="12.8">
@@ -10813,7 +11393,7 @@
         <v>488</v>
       </c>
       <c r="L144" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="145" spans="1:12" customHeight="1" ht="12.8">
@@ -10889,7 +11469,7 @@
         <v>488</v>
       </c>
       <c r="L146" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="147" spans="1:12" customHeight="1" ht="12.8">
@@ -11003,7 +11583,7 @@
         <v>526</v>
       </c>
       <c r="L149" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="150" spans="1:12" customHeight="1" ht="12.8">
@@ -11041,7 +11621,7 @@
         <v>526</v>
       </c>
       <c r="L150" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="151" spans="1:12" customHeight="1" ht="12.8">
@@ -11079,7 +11659,7 @@
         <v>526</v>
       </c>
       <c r="L151" s="2" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="152" spans="1:12" customHeight="1" ht="12.8">
@@ -11345,7 +11925,7 @@
         <v>541</v>
       </c>
       <c r="L158" s="2" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="159" spans="1:12" customHeight="1" ht="12.8">
@@ -11383,7 +11963,7 @@
         <v>541</v>
       </c>
       <c r="L159" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="160" spans="1:12" customHeight="1" ht="12.8">
@@ -11573,7 +12153,7 @@
         <v>541</v>
       </c>
       <c r="L164" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="165" spans="1:12" customHeight="1" ht="12.8">
@@ -11611,7 +12191,7 @@
         <v>565</v>
       </c>
       <c r="L165" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="166" spans="1:12" customHeight="1" ht="12.8">
@@ -11763,7 +12343,7 @@
         <v>541</v>
       </c>
       <c r="L169" s="2" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="170" spans="1:12" customHeight="1" ht="12.8">
@@ -11839,7 +12419,7 @@
         <v>541</v>
       </c>
       <c r="L171" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="172" spans="1:12" customHeight="1" ht="12.8">
@@ -11877,7 +12457,7 @@
         <v>541</v>
       </c>
       <c r="L172" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="173" spans="1:12" customHeight="1" ht="12.8">
@@ -12105,7 +12685,7 @@
         <v>541</v>
       </c>
       <c r="L178" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="179" spans="1:12" customHeight="1" ht="12.8">
@@ -12181,7 +12761,7 @@
         <v>634</v>
       </c>
       <c r="L180" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="181" spans="1:12" customHeight="1" ht="12.8">
@@ -12485,7 +13065,7 @@
         <v>634</v>
       </c>
       <c r="L188" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="189" spans="1:12" customHeight="1" ht="12.8">
@@ -12523,7 +13103,7 @@
         <v>634</v>
       </c>
       <c r="L189" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="190" spans="1:12" customHeight="1" ht="12.8">
@@ -12941,7 +13521,7 @@
         <v>634</v>
       </c>
       <c r="L200" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="201" spans="1:12" customHeight="1" ht="12.8">
@@ -13169,7 +13749,7 @@
         <v>643</v>
       </c>
       <c r="L206" s="2" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="207" spans="1:12" customHeight="1" ht="12.8">
@@ -13207,7 +13787,7 @@
         <v>643</v>
       </c>
       <c r="L207" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="208" spans="1:12" customHeight="1" ht="12.8">
@@ -13245,7 +13825,7 @@
         <v>643</v>
       </c>
       <c r="L208" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="209" spans="1:12" customHeight="1" ht="12.8">
@@ -13359,7 +13939,7 @@
         <v>643</v>
       </c>
       <c r="L211" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="212" spans="1:12" customHeight="1" ht="12.8">
@@ -13511,7 +14091,7 @@
         <v>755</v>
       </c>
       <c r="L215" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="216" spans="1:12" customHeight="1" ht="12.8">
@@ -13815,7 +14395,7 @@
         <v>776</v>
       </c>
       <c r="L223" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="224" spans="1:12" customHeight="1" ht="12.8">
@@ -14005,7 +14585,7 @@
         <v>776</v>
       </c>
       <c r="L228" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="229" spans="1:12" customHeight="1" ht="12.8">
@@ -14195,7 +14775,7 @@
         <v>776</v>
       </c>
       <c r="L233" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="234" spans="1:12" customHeight="1" ht="12.8">
@@ -14271,7 +14851,7 @@
         <v>776</v>
       </c>
       <c r="L235" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="236" spans="1:12" customHeight="1" ht="12.8">
@@ -14385,7 +14965,7 @@
         <v>776</v>
       </c>
       <c r="L238" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="239" spans="1:12" customHeight="1" ht="12.8">
@@ -14461,7 +15041,7 @@
         <v>776</v>
       </c>
       <c r="L240" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="241" spans="1:12" customHeight="1" ht="12.8">
@@ -15129,7 +15709,7 @@
         <v>887</v>
       </c>
       <c r="L258" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="259" spans="1:12" customHeight="1" ht="12.8">
@@ -15699,7 +16279,7 @@
         <v>936</v>
       </c>
       <c r="L273" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="274" spans="1:12" customHeight="1" ht="12.8">
@@ -15813,7 +16393,7 @@
         <v>936</v>
       </c>
       <c r="L276" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="277" spans="1:12" customHeight="1" ht="12.8">
@@ -15927,7 +16507,7 @@
         <v>936</v>
       </c>
       <c r="L279" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="280" spans="1:12" customHeight="1" ht="12.8">
@@ -15965,7 +16545,7 @@
         <v>936</v>
       </c>
       <c r="L280" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="281" spans="1:12" customHeight="1" ht="12.8">
@@ -16041,7 +16621,7 @@
         <v>936</v>
       </c>
       <c r="L282" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="283" spans="1:12" customHeight="1" ht="12.8">
@@ -16297,7 +16877,7 @@
         <v>936</v>
       </c>
       <c r="L289" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="290" spans="1:12" customHeight="1" ht="12.8">
@@ -16877,7 +17457,7 @@
         <v>1048</v>
       </c>
       <c r="L305" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="306" spans="1:12" customHeight="1" ht="12.8">
@@ -17257,7 +17837,7 @@
         <v>1070</v>
       </c>
       <c r="L315" s="2" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="316" spans="1:12" customHeight="1" ht="12.8">
@@ -17295,7 +17875,7 @@
         <v>1070</v>
       </c>
       <c r="L316" s="2" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="317" spans="1:12" customHeight="1" ht="12.8">
@@ -17523,7 +18103,7 @@
         <v>1070</v>
       </c>
       <c r="L322" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="323" spans="1:12" customHeight="1" ht="12.8">
@@ -17599,7 +18179,7 @@
         <v>1070</v>
       </c>
       <c r="L324" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="325" spans="1:12" customHeight="1" ht="12.8">
@@ -17789,7 +18369,7 @@
         <v>1136</v>
       </c>
       <c r="L329" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="330" spans="1:12" customHeight="1" ht="12.8">
@@ -17903,7 +18483,7 @@
         <v>1136</v>
       </c>
       <c r="L332" s="2" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="333" spans="1:12" customHeight="1" ht="12.8">
@@ -18055,7 +18635,7 @@
         <v>1070</v>
       </c>
       <c r="L336" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="337" spans="1:12" customHeight="1" ht="12.8">
@@ -18245,7 +18825,7 @@
         <v>1178</v>
       </c>
       <c r="L341" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="342" spans="1:12" customHeight="1" ht="12.8">
@@ -18321,7 +18901,7 @@
         <v>1197</v>
       </c>
       <c r="L343" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="344" spans="1:12" customHeight="1" ht="12.8">
@@ -18815,7 +19395,7 @@
         <v>1210</v>
       </c>
       <c r="L356" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="357" spans="1:12" customHeight="1" ht="12.8">
@@ -18967,7 +19547,7 @@
         <v>1210</v>
       </c>
       <c r="L360" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="361" spans="1:12" customHeight="1" ht="12.8">
@@ -19233,7 +19813,7 @@
         <v>1210</v>
       </c>
       <c r="L367" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="368" spans="1:12" customHeight="1" ht="12.8">
@@ -19309,7 +19889,7 @@
         <v>1210</v>
       </c>
       <c r="L369" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="370" spans="1:12" customHeight="1" ht="12.8">
@@ -19423,7 +20003,7 @@
         <v>1210</v>
       </c>
       <c r="L372" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="373" spans="1:12" customHeight="1" ht="12.8">
@@ -19499,7 +20079,7 @@
         <v>1210</v>
       </c>
       <c r="L374" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="375" spans="1:12" customHeight="1" ht="12.8">
@@ -19841,7 +20421,7 @@
         <v>1339</v>
       </c>
       <c r="L383" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="384" spans="1:12" customHeight="1" ht="12.8">
@@ -20553,7 +21133,7 @@
         <v>1399</v>
       </c>
       <c r="L402" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="403" spans="1:12" customHeight="1" ht="12.8">
@@ -20591,7 +21171,7 @@
         <v>1399</v>
       </c>
       <c r="L403" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="404" spans="1:12" customHeight="1" ht="12.8">
@@ -20819,7 +21399,7 @@
         <v>1399</v>
       </c>
       <c r="L409" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="410" spans="1:12" customHeight="1" ht="12.8">
@@ -21161,7 +21741,7 @@
         <v>1399</v>
       </c>
       <c r="L418" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="419" spans="1:12" customHeight="1" ht="12.8">
@@ -21199,7 +21779,7 @@
         <v>1399</v>
       </c>
       <c r="L419" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="420" spans="1:12" customHeight="1" ht="12.8">
@@ -21465,7 +22045,7 @@
         <v>1477</v>
       </c>
       <c r="L426" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="427" spans="1:12" customHeight="1" ht="12.8">
@@ -21615,7 +22195,7 @@
         <v>1494</v>
       </c>
       <c r="L430" s="2" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="431" spans="1:12" customHeight="1" ht="12.8">
@@ -21691,7 +22271,7 @@
         <v>1494</v>
       </c>
       <c r="L432" s="2" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="433" spans="1:12" customHeight="1" ht="12.8">
@@ -21767,7 +22347,7 @@
         <v>1509</v>
       </c>
       <c r="L434" s="2" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="435" spans="1:12" customHeight="1" ht="12.8">
@@ -21805,7 +22385,7 @@
         <v>1509</v>
       </c>
       <c r="L435" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="436" spans="1:12" customHeight="1" ht="12.8">
@@ -21843,7 +22423,7 @@
         <v>1509</v>
       </c>
       <c r="L436" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="437" spans="1:12" customHeight="1" ht="12.8">
@@ -22033,7 +22613,7 @@
         <v>1534</v>
       </c>
       <c r="L441" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="442" spans="1:12" customHeight="1" ht="12.8">
@@ -22071,7 +22651,7 @@
         <v>1534</v>
       </c>
       <c r="L442" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="443" spans="1:12" customHeight="1" ht="12.8">
@@ -22147,7 +22727,7 @@
         <v>1534</v>
       </c>
       <c r="L444" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="445" spans="1:12" customHeight="1" ht="12.8">
@@ -22261,7 +22841,7 @@
         <v>1559</v>
       </c>
       <c r="L447" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="448" spans="1:12" customHeight="1" ht="12.8">
@@ -22337,7 +22917,7 @@
         <v>1559</v>
       </c>
       <c r="L449" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="450" spans="1:12" customHeight="1" ht="12.8">
@@ -22375,7 +22955,7 @@
         <v>1559</v>
       </c>
       <c r="L450" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="451" spans="1:12" customHeight="1" ht="12.8">
@@ -22641,7 +23221,7 @@
         <v>1509</v>
       </c>
       <c r="L457" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="458" spans="1:12" customHeight="1" ht="12.8">
@@ -23059,7 +23639,7 @@
         <v>1619</v>
       </c>
       <c r="L468" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="469" spans="1:12" customHeight="1" ht="12.8">
@@ -23361,7 +23941,7 @@
         <v>1644</v>
       </c>
       <c r="L476" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="477" spans="1:12" customHeight="1" ht="12.8">
@@ -23437,7 +24017,7 @@
         <v>1644</v>
       </c>
       <c r="L478" s="2" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="479" spans="1:12" customHeight="1" ht="12.8">
@@ -23513,6 +24093,1574 @@
         <v>1644</v>
       </c>
       <c r="L480" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="481" spans="1:12" customHeight="1" ht="12.8">
+      <c r="A481" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">350032047248</t>
+          </r>
+        </is>
+      </c>
+      <c r="B481" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Maquina Secar Beko DHS 8312 GA0</t>
+          </r>
+        </is>
+      </c>
+      <c r="C481" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">47248</t>
+          </r>
+        </is>
+      </c>
+      <c r="D481" s="3">
+        <v>479</v>
+      </c>
+      <c r="E481" s="2">
+        <v>44</v>
+      </c>
+      <c r="F481" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BEKO</t>
+          </r>
+        </is>
+      </c>
+      <c r="G481" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">135</t>
+          </r>
+        </is>
+      </c>
+      <c r="H481" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Secador P/Condensação c/Bomba Calor | 16 Programas | LCD Display (grande) | 8 Kg | Controlo Humidade Eletrónico | Classe A+</t>
+          </r>
+        </is>
+      </c>
+      <c r="I481" s="2"/>
+      <c r="J481" s="2"/>
+      <c r="K481" s="2"/>
+      <c r="L481" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="482" spans="1:12" customHeight="1" ht="12.8">
+      <c r="A482" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">350033047644</t>
+          </r>
+        </is>
+      </c>
+      <c r="B482" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Maq.Louça Beko DEN 38530 XAD</t>
+          </r>
+        </is>
+      </c>
+      <c r="C482" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">47644</t>
+          </r>
+        </is>
+      </c>
+      <c r="D482" s="3">
+        <v>549</v>
+      </c>
+      <c r="E482" s="2">
+        <v>52.2</v>
+      </c>
+      <c r="F482" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BEKO</t>
+          </r>
+        </is>
+      </c>
+      <c r="G482" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">135</t>
+          </r>
+        </is>
+      </c>
+      <c r="H482" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">15 Talheres | LCD Display | Aqua intensive | Motor ProSmart Inverter | 8 Programas | AutoDosing | Consumo Água: 9.5 L | Classe A+++</t>
+          </r>
+        </is>
+      </c>
+      <c r="I482" s="2"/>
+      <c r="J482" s="2"/>
+      <c r="K482" s="2"/>
+      <c r="L482" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="483" spans="1:12" customHeight="1" ht="12.8">
+      <c r="A483" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">350013046841</t>
+          </r>
+        </is>
+      </c>
+      <c r="B483" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Combinado Int. Beko BCHA 275E4 SN</t>
+          </r>
+        </is>
+      </c>
+      <c r="C483" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">46841</t>
+          </r>
+        </is>
+      </c>
+      <c r="D483" s="3">
+        <v>544</v>
+      </c>
+      <c r="E483" s="2">
+        <v>59</v>
+      </c>
+      <c r="F483" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BEKO</t>
+          </r>
+        </is>
+      </c>
+      <c r="G483" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">115</t>
+          </r>
+        </is>
+      </c>
+      <c r="H483" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">275 L / 255 L (186/69) Semi No Frost | 3 Gavetas | Classe: A++ | 1770 x 540 x 535 mm (A x L x P)</t>
+          </r>
+        </is>
+      </c>
+      <c r="I483" s="2"/>
+      <c r="J483" s="2"/>
+      <c r="K483" s="2"/>
+      <c r="L483" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="484" spans="1:12" customHeight="1" ht="12.8">
+      <c r="A484" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">350013046899</t>
+          </r>
+        </is>
+      </c>
+      <c r="B484" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Frigorifico Beko RDNT 231I30 WN</t>
+          </r>
+        </is>
+      </c>
+      <c r="C484" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">46899</t>
+          </r>
+        </is>
+      </c>
+      <c r="D484" s="3">
+        <v>392</v>
+      </c>
+      <c r="E484" s="2">
+        <v>51</v>
+      </c>
+      <c r="F484" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BEKO</t>
+          </r>
+        </is>
+      </c>
+      <c r="G484" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">130</t>
+          </r>
+        </is>
+      </c>
+      <c r="H484" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">2 Portas | No Frost | 230 L /201 L (139/62) | Classe A+ | 1450 x 540 x 620 mm (A x L x P) | Branco</t>
+          </r>
+        </is>
+      </c>
+      <c r="I484" s="2"/>
+      <c r="J484" s="2"/>
+      <c r="K484" s="2"/>
+      <c r="L484" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="485" spans="1:12" customHeight="1" ht="12.8">
+      <c r="A485" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">350013046329</t>
+          </r>
+        </is>
+      </c>
+      <c r="B485" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Combinado Beko RCHA 270K30 WN</t>
+          </r>
+        </is>
+      </c>
+      <c r="C485" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">46329</t>
+          </r>
+        </is>
+      </c>
+      <c r="D485" s="3">
+        <v>417</v>
+      </c>
+      <c r="E485" s="2">
+        <v>57.5</v>
+      </c>
+      <c r="F485" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BEKO</t>
+          </r>
+        </is>
+      </c>
+      <c r="G485" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">130</t>
+          </r>
+        </is>
+      </c>
+      <c r="H485" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Semi No Frost | 270 L / 245 L (175/70) | 3 Gavetas | Classe A+ (260 Kwh/ano) | 1705 x 540 x 600 ( A x L x P ) | Branco</t>
+          </r>
+        </is>
+      </c>
+      <c r="I485" s="2"/>
+      <c r="J485" s="2"/>
+      <c r="K485" s="2"/>
+      <c r="L485" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="486" spans="1:12" customHeight="1" ht="12.8">
+      <c r="A486" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">350013046777</t>
+          </r>
+        </is>
+      </c>
+      <c r="B486" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Congelador Vert.  Beko RFNE 312E43 WN</t>
+          </r>
+        </is>
+      </c>
+      <c r="C486" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">46777</t>
+          </r>
+        </is>
+      </c>
+      <c r="D486" s="3">
+        <v>690</v>
+      </c>
+      <c r="E486" s="2">
+        <v>76.5</v>
+      </c>
+      <c r="F486" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BEKO</t>
+          </r>
+        </is>
+      </c>
+      <c r="G486" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">120</t>
+          </r>
+        </is>
+      </c>
+      <c r="H486" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">No Frost | Branco | 312 L / 282 L | 8 Gavetas | Classe E (EU 2021) - 249 Kwh/ano | 38 dB | 1845 x 595 x 650 mm (A x L x P)</t>
+          </r>
+        </is>
+      </c>
+      <c r="I486" s="2"/>
+      <c r="J486" s="2"/>
+      <c r="K486" s="2"/>
+      <c r="L486" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="487" spans="1:12" customHeight="1" ht="12.8">
+      <c r="A487" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">350013046414</t>
+          </r>
+        </is>
+      </c>
+      <c r="B487" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Frigorifico Beko RSNE 445I31 XBN</t>
+          </r>
+        </is>
+      </c>
+      <c r="C487" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">46414</t>
+          </r>
+        </is>
+      </c>
+      <c r="D487" s="3">
+        <v>545</v>
+      </c>
+      <c r="E487" s="2">
+        <v>75</v>
+      </c>
+      <c r="F487" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BEKO</t>
+          </r>
+        </is>
+      </c>
+      <c r="G487" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">130</t>
+          </r>
+        </is>
+      </c>
+      <c r="H487" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">1 Porta No Frost | 445 L / 366 L | Display Digital Interno | Cooler | Inox | Classe A++ | 1850 x 595 x 650 mm (A x L x P) |PVC Inox</t>
+          </r>
+        </is>
+      </c>
+      <c r="I487" s="2"/>
+      <c r="J487" s="2"/>
+      <c r="K487" s="2"/>
+      <c r="L487" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="488" spans="1:12" customHeight="1" ht="12.8">
+      <c r="A488" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">350004046359</t>
+          </r>
+        </is>
+      </c>
+      <c r="B488" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Congelador Horizontal Beko HSA 47530 N</t>
+          </r>
+        </is>
+      </c>
+      <c r="C488" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">46359</t>
+          </r>
+        </is>
+      </c>
+      <c r="D488" s="3">
+        <v>498</v>
+      </c>
+      <c r="E488" s="2">
+        <v>60</v>
+      </c>
+      <c r="F488" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BEKO</t>
+          </r>
+        </is>
+      </c>
+      <c r="G488" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">120</t>
+          </r>
+        </is>
+      </c>
+      <c r="H488" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">467 L / 451 L | Classe A+ ( 350 Kwh ) | 40 dB  |  860 x 1552 x 725 mm (A x L x P)</t>
+          </r>
+        </is>
+      </c>
+      <c r="I488" s="2"/>
+      <c r="J488" s="2"/>
+      <c r="K488" s="2"/>
+      <c r="L488" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="489" spans="1:12" customHeight="1" ht="12.8">
+      <c r="A489" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">350033047650</t>
+          </r>
+        </is>
+      </c>
+      <c r="B489" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Maq.Louça Integ. Beko DIN 36421</t>
+          </r>
+        </is>
+      </c>
+      <c r="C489" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">47650</t>
+          </r>
+        </is>
+      </c>
+      <c r="D489" s="3">
+        <v>399</v>
+      </c>
+      <c r="E489" s="2">
+        <v>36.5</v>
+      </c>
+      <c r="F489" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BEKO</t>
+          </r>
+        </is>
+      </c>
+      <c r="G489" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">115</t>
+          </r>
+        </is>
+      </c>
+      <c r="H489" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">12 Talheres | 6 Programas | Classe A++AA | Total Integrável</t>
+          </r>
+        </is>
+      </c>
+      <c r="I489" s="2"/>
+      <c r="J489" s="2"/>
+      <c r="K489" s="2"/>
+      <c r="L489" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="490" spans="1:12" customHeight="1" ht="12.8">
+      <c r="A490" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">350033047651</t>
+          </r>
+        </is>
+      </c>
+      <c r="B490" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Maq.Louça Integ. Beko DIN 36420</t>
+          </r>
+        </is>
+      </c>
+      <c r="C490" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">47651</t>
+          </r>
+        </is>
+      </c>
+      <c r="D490" s="3">
+        <v>424</v>
+      </c>
+      <c r="E490" s="2">
+        <v>38.9</v>
+      </c>
+      <c r="F490" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BEKO</t>
+          </r>
+        </is>
+      </c>
+      <c r="G490" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">115</t>
+          </r>
+        </is>
+      </c>
+      <c r="H490" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">12 Talheres | 6 Programas | Led Spot | Classe A++AA | Total Integrável</t>
+          </r>
+        </is>
+      </c>
+      <c r="I490" s="2"/>
+      <c r="J490" s="2"/>
+      <c r="K490" s="2"/>
+      <c r="L490" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="491" spans="1:12" customHeight="1" ht="12.8">
+      <c r="A491" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">350013046750</t>
+          </r>
+        </is>
+      </c>
+      <c r="B491" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Frigorifico Integ. Beko BSSA 210K3 SN</t>
+          </r>
+        </is>
+      </c>
+      <c r="C491" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">46750</t>
+          </r>
+        </is>
+      </c>
+      <c r="D491" s="3">
+        <v>338</v>
+      </c>
+      <c r="E491" s="2">
+        <v>41.8</v>
+      </c>
+      <c r="F491" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BEKO</t>
+          </r>
+        </is>
+      </c>
+      <c r="G491" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">115</t>
+          </r>
+        </is>
+      </c>
+      <c r="H491" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">1 Porta | 200 L / 184 L (164/20) | Table Top| Classe A+ | 1210 x 540 x 545 mm (A x L x P)</t>
+          </r>
+        </is>
+      </c>
+      <c r="I491" s="2"/>
+      <c r="J491" s="2"/>
+      <c r="K491" s="2"/>
+      <c r="L491" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="492" spans="1:12" customHeight="1" ht="12.8">
+      <c r="A492" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">350013046322</t>
+          </r>
+        </is>
+      </c>
+      <c r="B492" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Frigorifico Beko RDNE 350K30 WN</t>
+          </r>
+        </is>
+      </c>
+      <c r="C492" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">46322</t>
+          </r>
+        </is>
+      </c>
+      <c r="D492" s="3">
+        <v>479</v>
+      </c>
+      <c r="E492" s="2">
+        <v>65</v>
+      </c>
+      <c r="F492" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BEKO</t>
+          </r>
+        </is>
+      </c>
+      <c r="G492" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">130</t>
+          </r>
+        </is>
+      </c>
+      <c r="H492" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">2 Portas | No Frost | 350 L / 318 L (245/73) | Classe A+ | No Frost | 1720 x 595 x 650 mm (A x L x P) | Branco</t>
+          </r>
+        </is>
+      </c>
+      <c r="I492" s="2"/>
+      <c r="J492" s="2"/>
+      <c r="K492" s="2"/>
+      <c r="L492" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="493" spans="1:12" customHeight="1" ht="12.8">
+      <c r="A493" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">350013046402</t>
+          </r>
+        </is>
+      </c>
+      <c r="B493" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Frigorifico Beko RDSA 280K30 SN</t>
+          </r>
+        </is>
+      </c>
+      <c r="C493" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">46402</t>
+          </r>
+        </is>
+      </c>
+      <c r="D493" s="3">
+        <v>334</v>
+      </c>
+      <c r="E493" s="2">
+        <v>45</v>
+      </c>
+      <c r="F493" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BEKO</t>
+          </r>
+        </is>
+      </c>
+      <c r="G493" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">130</t>
+          </r>
+        </is>
+      </c>
+      <c r="H493" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">2 Portas | Cíclico | 280 L / 259 L (210/49) | Classe A  | 1598 x 540 x 600 mm (A x L x P) | Silver</t>
+          </r>
+        </is>
+      </c>
+      <c r="I493" s="2"/>
+      <c r="J493" s="2"/>
+      <c r="K493" s="2"/>
+      <c r="L493" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="494" spans="1:12" customHeight="1" ht="12.8">
+      <c r="A494" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">350032047139</t>
+          </r>
+        </is>
+      </c>
+      <c r="B494" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Maquina Lavar Beko WMP 11744 XWR</t>
+          </r>
+        </is>
+      </c>
+      <c r="C494" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">47139</t>
+          </r>
+        </is>
+      </c>
+      <c r="D494" s="3">
+        <v>549</v>
+      </c>
+      <c r="E494" s="2">
+        <v>79</v>
+      </c>
+      <c r="F494" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BEKO</t>
+          </r>
+        </is>
+      </c>
+      <c r="G494" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">135</t>
+          </r>
+        </is>
+      </c>
+      <c r="H494" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">1400 RPM Variável - 11 Kg - Motor ProSmart Inverter - Óculo Grande XL - LCD Display (grande) - Eletrónica - Classe A+++-10AB</t>
+          </r>
+        </is>
+      </c>
+      <c r="I494" s="2"/>
+      <c r="J494" s="2"/>
+      <c r="K494" s="2"/>
+      <c r="L494" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="495" spans="1:12" customHeight="1" ht="12.8">
+      <c r="A495" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">350013046413</t>
+          </r>
+        </is>
+      </c>
+      <c r="B495" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Frigorifico Beko TSE 1284 N</t>
+          </r>
+        </is>
+      </c>
+      <c r="C495" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">46413</t>
+          </r>
+        </is>
+      </c>
+      <c r="D495" s="3">
+        <v>225</v>
+      </c>
+      <c r="E495" s="2">
+        <v>31.5</v>
+      </c>
+      <c r="F495" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BEKO</t>
+          </r>
+        </is>
+      </c>
+      <c r="G495" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">130</t>
+          </r>
+        </is>
+      </c>
+      <c r="H495" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">1 Porta | Branco | Cíclico | C/ Congelador | 120 L / 114 L (101/13) | Table Top | Classe A++ | 840 x 545 x 595 mm (A x L x P)</t>
+          </r>
+        </is>
+      </c>
+      <c r="I495" s="2"/>
+      <c r="J495" s="2"/>
+      <c r="K495" s="2"/>
+      <c r="L495" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="496" spans="1:12" customHeight="1" ht="12.8">
+      <c r="A496" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">350013046749</t>
+          </r>
+        </is>
+      </c>
+      <c r="B496" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Frigorifico Beko RDNE 455E31 ZXBN</t>
+          </r>
+        </is>
+      </c>
+      <c r="C496" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">46749</t>
+          </r>
+        </is>
+      </c>
+      <c r="D496" s="3">
+        <v>699</v>
+      </c>
+      <c r="E496" s="2">
+        <v>87</v>
+      </c>
+      <c r="F496" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BEKO</t>
+          </r>
+        </is>
+      </c>
+      <c r="G496" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">130</t>
+          </r>
+        </is>
+      </c>
+      <c r="H496" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">2 Portas | No Frost | 455 L / 406 L (313/96) |  Classe A++ | 1850 x 700 x 690 mm (A x L x P) | Look Inox</t>
+          </r>
+        </is>
+      </c>
+      <c r="I496" s="2"/>
+      <c r="J496" s="2"/>
+      <c r="K496" s="2"/>
+      <c r="L496" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="497" spans="1:12" customHeight="1" ht="12.8">
+      <c r="A497" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">350033047652</t>
+          </r>
+        </is>
+      </c>
+      <c r="B497" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Maq.Louça Beko DFN 26420 WAD</t>
+          </r>
+        </is>
+      </c>
+      <c r="C497" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">47652</t>
+          </r>
+        </is>
+      </c>
+      <c r="D497" s="3">
+        <v>435</v>
+      </c>
+      <c r="E497" s="2">
+        <v>47.9</v>
+      </c>
+      <c r="F497" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BEKO</t>
+          </r>
+        </is>
+      </c>
+      <c r="G497" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">135</t>
+          </r>
+        </is>
+      </c>
+      <c r="H497" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">14 Talheres | Display Digital | 6 Programas |Motor ProSmart Inverter | Consumo Água: 10 L | Classe A+++ | Branco</t>
+          </r>
+        </is>
+      </c>
+      <c r="I497" s="2"/>
+      <c r="J497" s="2"/>
+      <c r="K497" s="2"/>
+      <c r="L497" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="498" spans="1:12" customHeight="1" ht="12.8">
+      <c r="A498" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">350032047249</t>
+          </r>
+        </is>
+      </c>
+      <c r="B498" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Maquina Secar Beko DH 9532 GA0</t>
+          </r>
+        </is>
+      </c>
+      <c r="C498" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">47249</t>
+          </r>
+        </is>
+      </c>
+      <c r="D498" s="3">
+        <v>599</v>
+      </c>
+      <c r="E498" s="2">
+        <v>53.5</v>
+      </c>
+      <c r="F498" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BEKO</t>
+          </r>
+        </is>
+      </c>
+      <c r="G498" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">135</t>
+          </r>
+        </is>
+      </c>
+      <c r="H498" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Secador P/Condensação c/Bomba Calor | 16 Programas | Display digital | 9 Kg | Controlo Humidade Eletrónico | Classe A++</t>
+          </r>
+        </is>
+      </c>
+      <c r="I498" s="2"/>
+      <c r="J498" s="2"/>
+      <c r="K498" s="2"/>
+      <c r="L498" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="499" spans="1:12" customHeight="1" ht="12.8">
+      <c r="A499" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">350032047251</t>
+          </r>
+        </is>
+      </c>
+      <c r="B499" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Maquina Secar Beko DU 7111 GA1</t>
+          </r>
+        </is>
+      </c>
+      <c r="C499" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">47251</t>
+          </r>
+        </is>
+      </c>
+      <c r="D499" s="3">
+        <v>338</v>
+      </c>
+      <c r="E499" s="2">
+        <v>34</v>
+      </c>
+      <c r="F499" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BEKO</t>
+          </r>
+        </is>
+      </c>
+      <c r="G499" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">135</t>
+          </r>
+        </is>
+      </c>
+      <c r="H499" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Secador P/Condensação | 15 Programas | 7 Kg | Controlo de Humidade Eletrónico | Classe: B</t>
+          </r>
+        </is>
+      </c>
+      <c r="I499" s="2"/>
+      <c r="J499" s="2"/>
+      <c r="K499" s="2"/>
+      <c r="L499" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="500" spans="1:12" customHeight="1" ht="12.8">
+      <c r="A500" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">350032047257</t>
+          </r>
+        </is>
+      </c>
+      <c r="B500" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Maquina Secar Beko DHS 7413 GA0</t>
+          </r>
+        </is>
+      </c>
+      <c r="C500" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">47257</t>
+          </r>
+        </is>
+      </c>
+      <c r="D500" s="3">
+        <v>468</v>
+      </c>
+      <c r="E500" s="2">
+        <v>46</v>
+      </c>
+      <c r="F500" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BEKO</t>
+          </r>
+        </is>
+      </c>
+      <c r="G500" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">135</t>
+          </r>
+        </is>
+      </c>
+      <c r="H500" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Secador P/Condensação c/Bomba Calor | 16 Programas | 7 Kg | Classe A-30</t>
+          </r>
+        </is>
+      </c>
+      <c r="I500" s="2"/>
+      <c r="J500" s="2"/>
+      <c r="K500" s="2"/>
+      <c r="L500" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="501" spans="1:12" customHeight="1" ht="12.8">
+      <c r="A501" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">350032047254</t>
+          </r>
+        </is>
+      </c>
+      <c r="B501" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Maquina Secar Beko DHS 8412 GA0</t>
+          </r>
+        </is>
+      </c>
+      <c r="C501" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">47254</t>
+          </r>
+        </is>
+      </c>
+      <c r="D501" s="3">
+        <v>499</v>
+      </c>
+      <c r="E501" s="2">
+        <v>46</v>
+      </c>
+      <c r="F501" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BEKO</t>
+          </r>
+        </is>
+      </c>
+      <c r="G501" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">135</t>
+          </r>
+        </is>
+      </c>
+      <c r="H501" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Secador P/Condensação c/Bomba Calor | 16 Programas | LCD Display (grande) | 8 Kg | Controlo Humidade Eletrónico | Classe A+</t>
+          </r>
+        </is>
+      </c>
+      <c r="I501" s="2"/>
+      <c r="J501" s="2"/>
+      <c r="K501" s="2"/>
+      <c r="L501" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="502" spans="1:12" customHeight="1" ht="12.8">
+      <c r="A502" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">350032047255</t>
+          </r>
+        </is>
+      </c>
+      <c r="B502" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Maquina Secar Beko DS 8512 CX</t>
+          </r>
+        </is>
+      </c>
+      <c r="C502" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">47255</t>
+          </r>
+        </is>
+      </c>
+      <c r="D502" s="3">
+        <v>542</v>
+      </c>
+      <c r="E502" s="2">
+        <v>49</v>
+      </c>
+      <c r="F502" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BEKO</t>
+          </r>
+        </is>
+      </c>
+      <c r="G502" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">135</t>
+          </r>
+        </is>
+      </c>
+      <c r="H502" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Secador P/Condensação c/Bomba Calor | 16 Programas | LCD Display (grande) | 8 Kg | Controlo Humidade Eletrónico | Classe A+++</t>
+          </r>
+        </is>
+      </c>
+      <c r="I502" s="2"/>
+      <c r="J502" s="2"/>
+      <c r="K502" s="2"/>
+      <c r="L502" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="503" spans="1:12" customHeight="1" ht="12.8">
+      <c r="A503" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">350028048575</t>
+          </r>
+        </is>
+      </c>
+      <c r="B503" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Placa Encast. Beko HII 64200 FMT</t>
+          </r>
+        </is>
+      </c>
+      <c r="C503" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">48575</t>
+          </r>
+        </is>
+      </c>
+      <c r="D503" s="3">
+        <v>449</v>
+      </c>
+      <c r="E503" s="2">
+        <v>12</v>
+      </c>
+      <c r="F503" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BEKO</t>
+          </r>
+        </is>
+      </c>
+      <c r="G503" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">115</t>
+          </r>
+        </is>
+      </c>
+      <c r="H503" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Placa 60 cm Indução com 2 Zonas Flexíveis + 2 Indução Normal | Slider Control | Timer</t>
+          </r>
+        </is>
+      </c>
+      <c r="I503" s="2"/>
+      <c r="J503" s="2"/>
+      <c r="K503" s="2"/>
+      <c r="L503" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="504" spans="1:12" customHeight="1" ht="12.8">
+      <c r="A504" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">350028048576</t>
+          </r>
+        </is>
+      </c>
+      <c r="B504" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Placa Encast. Beko HII 64401 MT</t>
+          </r>
+        </is>
+      </c>
+      <c r="C504" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">48576</t>
+          </r>
+        </is>
+      </c>
+      <c r="D504" s="3">
+        <v>325</v>
+      </c>
+      <c r="E504" s="2">
+        <v>10</v>
+      </c>
+      <c r="F504" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BEKO</t>
+          </r>
+        </is>
+      </c>
+      <c r="G504" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">115</t>
+          </r>
+        </is>
+      </c>
+      <c r="H504" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Placa 60 cm | 4 Indução Magnética | Touch Control | Timer</t>
+          </r>
+        </is>
+      </c>
+      <c r="I504" s="2"/>
+      <c r="J504" s="2"/>
+      <c r="K504" s="2"/>
+      <c r="L504" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="505" spans="1:12" customHeight="1" ht="12.8">
+      <c r="A505" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">350076048139</t>
+          </r>
+        </is>
+      </c>
+      <c r="B505" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Exaustor Telescópico Beko HNT 61110 X</t>
+          </r>
+        </is>
+      </c>
+      <c r="C505" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">48139</t>
+          </r>
+        </is>
+      </c>
+      <c r="D505" s="3">
+        <v>92</v>
+      </c>
+      <c r="E505" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="F505" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BEKO</t>
+          </r>
+        </is>
+      </c>
+      <c r="G505" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">115</t>
+          </r>
+        </is>
+      </c>
+      <c r="H505" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Telescópico 60 cm | Inox | 280 m3/h | 1 Motor</t>
+          </r>
+        </is>
+      </c>
+      <c r="I505" s="2"/>
+      <c r="J505" s="2"/>
+      <c r="K505" s="2"/>
+      <c r="L505" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="506" spans="1:12" customHeight="1" ht="12.8">
+      <c r="A506" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">350032047138</t>
+          </r>
+        </is>
+      </c>
+      <c r="B506" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Maquina Lavar Beko WMY 81283 LMB4R</t>
+          </r>
+        </is>
+      </c>
+      <c r="C506" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">47138</t>
+          </r>
+        </is>
+      </c>
+      <c r="D506" s="3">
+        <v>369</v>
+      </c>
+      <c r="E506" s="2">
+        <v>70</v>
+      </c>
+      <c r="F506" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BEKO</t>
+          </r>
+        </is>
+      </c>
+      <c r="G506" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">135</t>
+          </r>
+        </is>
+      </c>
+      <c r="H506" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">1200 RPM Variável - 8 Kg - Óculo Grande XL - Electrónica - Volumax - Display Digital - Classe A+++, C (EU 2021) - Home Wiz</t>
+          </r>
+        </is>
+      </c>
+      <c r="I506" s="2"/>
+      <c r="J506" s="2"/>
+      <c r="K506" s="2"/>
+      <c r="L506" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="507" spans="1:12" customHeight="1" ht="12.8">
+      <c r="A507" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">350013046441</t>
+          </r>
+        </is>
+      </c>
+      <c r="B507" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Combinado Beko RCNA 366K34 WN</t>
+          </r>
+        </is>
+      </c>
+      <c r="C507" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">46441</t>
+          </r>
+        </is>
+      </c>
+      <c r="D507" s="3">
+        <v>489</v>
+      </c>
+      <c r="E507" s="2">
+        <v>74</v>
+      </c>
+      <c r="F507" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BEKO</t>
+          </r>
+        </is>
+      </c>
+      <c r="G507" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">130</t>
+          </r>
+        </is>
+      </c>
+      <c r="H507" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">No Frost | 366 L / 324 L (215/109) | 3 gavetas | Classe A+ | 1853 x 595 x 665 mm ( A x L x P ) | Branco</t>
+          </r>
+        </is>
+      </c>
+      <c r="I507" s="2"/>
+      <c r="J507" s="2"/>
+      <c r="K507" s="2"/>
+      <c r="L507" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="508" spans="1:12" customHeight="1" ht="12.8">
+      <c r="A508" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">350013046442</t>
+          </r>
+        </is>
+      </c>
+      <c r="B508" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Combinado Beko RCNA 366K34 XBN</t>
+          </r>
+        </is>
+      </c>
+      <c r="C508" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">46442</t>
+          </r>
+        </is>
+      </c>
+      <c r="D508" s="3">
+        <v>509</v>
+      </c>
+      <c r="E508" s="2">
+        <v>74</v>
+      </c>
+      <c r="F508" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BEKO</t>
+          </r>
+        </is>
+      </c>
+      <c r="G508" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">130</t>
+          </r>
+        </is>
+      </c>
+      <c r="H508" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">No Frost | 366 L / 324 L (215/109) | 3 gavetas | Classe A+ | 1853 x 595 x 665 mm ( A x L x P ) | Look Inox</t>
+          </r>
+        </is>
+      </c>
+      <c r="I508" s="2"/>
+      <c r="J508" s="2"/>
+      <c r="K508" s="2"/>
+      <c r="L508" s="2" t="s">
         <v>50</v>
       </c>
     </row>
